--- a/output/DEEP_WS.xlsx
+++ b/output/DEEP_WS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pree\Thai_SA_journal\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E2D2C-5EE5-488B-B43F-7ADDD91F3DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAD8BBB-2F76-424B-ABDE-83600ECFA48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESULT" sheetId="2" r:id="rId1"/>
@@ -461,37 +461,37 @@
     <t>CNN</t>
   </si>
   <si>
-    <t>LSTM</t>
-  </si>
-  <si>
     <t>BERT</t>
   </si>
   <si>
-    <t>0.6558±0.0054</t>
-  </si>
-  <si>
-    <t>0.595±0.0222</t>
-  </si>
-  <si>
-    <t>0.4572±0.0195</t>
-  </si>
-  <si>
-    <t>0.3882±0.0124</t>
-  </si>
-  <si>
-    <t>0.814±0.0071</t>
-  </si>
-  <si>
-    <t>0.5164±0.0075</t>
-  </si>
-  <si>
-    <t>0.6571±0.0054</t>
-  </si>
-  <si>
-    <t>0.3867±0.0111</t>
-  </si>
-  <si>
-    <t>0.4922±0.0218</t>
+    <t>0.6645±0.0058</t>
+  </si>
+  <si>
+    <t>0.6125±0.0296</t>
+  </si>
+  <si>
+    <t>0.4446±0.0167</t>
+  </si>
+  <si>
+    <t>0.4041±0.0119</t>
+  </si>
+  <si>
+    <t>0.808±0.0043</t>
+  </si>
+  <si>
+    <t>0.5149±0.0154</t>
+  </si>
+  <si>
+    <t>0.6712±0.0062</t>
+  </si>
+  <si>
+    <t>0.4177±0.013</t>
+  </si>
+  <si>
+    <t>0.5189±0.0205</t>
+  </si>
+  <si>
+    <t>Bi-LSTM</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1372,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1431,50 +1431,50 @@
         <v>141</v>
       </c>
       <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>145</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>146</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>147</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>148</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>149</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" t="s">
         <v>150</v>
       </c>
-      <c r="J3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" t="s">
         <v>151</v>
-      </c>
-      <c r="M3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:14">
